--- a/Documents/Aphelios_Database02.xlsx
+++ b/Documents/Aphelios_Database02.xlsx
@@ -421,7 +421,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="144">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1109,19 +1109,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>카인에 오염된 안내 로봇 등장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카인의 영향을 받은 몬스터 첫 등장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마지막 보스를 처치한 잭은 탈출구를 넘어 비상탈출선에 탑승하고 지구로 출발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>침입자 발생으로 보안 프로그램 실행, 선체 구조 변경</t>
+    <t>침입자 발생으로 보안 프로그램 실행, 선체 구조 변경 안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카인에 오염된 안내 로봇 등장, 다음 스테이지와 연결되는 문 근처에 카인이 흩뿌려져 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2와 연결되어 비슷한 분위기의 스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카인의 영향을 받은 몬스터 첫 등장, 스테이지는 난장판이 되어있으며 맵 여기저기 피와 카인으로 얼룩져있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞서가던 침입자들이 괴물들을 막기 위한 흔적이 남아있음. (연출 고민 중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그라비토를 연구하는 과정이었던 것으로 보이는 문서들과 계산식들이 곳곳에 널려있음, 중앙에 그라비토 하나가 전시되어 있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1359,7 +1375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1796,6 +1812,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2016,89 +2069,89 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2144,7 +2197,7 @@
         <xdr:cNvPr id="3" name="그림 2" descr="https://cdn.discordapp.com/attachments/774242422103736351/934409412544716840/a8396a44fdb9d6641c8a75d23271f3aa.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2212,7 +2265,7 @@
         <xdr:cNvPr id="5" name="그림 4" descr="Aperture Science Cube Button | Half-Life Wiki | Fandom">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2273,7 +2326,7 @@
         <xdr:cNvPr id="6" name="그림 5" descr="https://i.pinimg.com/564x/61/15/11/6115116df1c610a08907e4293954cb0d.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2334,7 +2387,7 @@
         <xdr:cNvPr id="7" name="그림 6" descr="https://i.pinimg.com/564x/af/e8/da/afe8da4183f3b6cf18a3b284689e9646.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2395,7 +2448,7 @@
         <xdr:cNvPr id="9" name="그림 8" descr="https://i.pinimg.com/564x/73/8f/25/738f251e22062a6310633e03196cf78e.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2456,7 +2509,7 @@
         <xdr:cNvPr id="11" name="그림 10" descr="https://i.pinimg.com/564x/21/dd/b0/21ddb0cf88a5d22026b2ca24a00fb9e9.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2517,7 +2570,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55BEB0A5-8E1B-4EDC-B8F5-5C9977DBAC5E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55BEB0A5-8E1B-4EDC-B8F5-5C9977DBAC5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2588,7 +2641,7 @@
         <xdr:cNvPr id="10" name="그림 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65817B04-6B44-4749-8DD7-0B57026160FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65817B04-6B44-4749-8DD7-0B57026160FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2649,7 +2702,7 @@
         <xdr:cNvPr id="12" name="그림 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1267D9AF-8655-4E22-9659-DCA6EC557663}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1267D9AF-8655-4E22-9659-DCA6EC557663}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2763,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C9B5EC3-DD41-442B-87FC-4772B5C65FF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C9B5EC3-DD41-442B-87FC-4772B5C65FF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2824,7 @@
         <xdr:cNvPr id="14" name="그림 13" descr="현실적인 지구 3D 모델 $13 - .c4d - Free3D">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A94ADF76-5603-44B6-86DF-AEB1C6464B94}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A94ADF76-5603-44B6-86DF-AEB1C6464B94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2832,7 +2885,7 @@
         <xdr:cNvPr id="15" name="그림 14" descr="폭염&amp;#39;에 갈색으로 변한 지구…우주에서 내려다본 모습은 - 조선일보">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6ADE09E1-6302-4E22-AAFE-88B7A2FD3DD7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ADE09E1-6302-4E22-AAFE-88B7A2FD3DD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2893,7 +2946,7 @@
         <xdr:cNvPr id="16" name="그림 15" descr="우주정거장에서 본 지구 – kalkin7&amp;#39;s WordPress">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FFBC46C-B52B-4C67-8913-5C1F9468A416}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FFBC46C-B52B-4C67-8913-5C1F9468A416}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2954,7 +3007,7 @@
         <xdr:cNvPr id="17" name="그림 16" descr="우주 정거장 내부 화장실 방입니다 우주선에 변기와 빈 화장실 우주 비행사에 대 한 공간 화장실입니다 Mir Space Station에  대한 스톡 사진 및 기타 이미지 - iStock">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{558B1A8E-0CB5-4C23-859C-075342765928}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558B1A8E-0CB5-4C23-859C-075342765928}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3015,7 +3068,7 @@
         <xdr:cNvPr id="18" name="그림 17" descr="우주에서의 배설물은 어떻게 처리할까? : 네이버 블로그">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0AB486B-BE3F-49AB-9FE7-F85277FFE8FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0AB486B-BE3F-49AB-9FE7-F85277FFE8FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3076,7 +3129,7 @@
         <xdr:cNvPr id="20" name="그림 19" descr="배경으로 오래된 흙 벽 로열티 무료 사진, 그림, 이미지 그리고 스톡포토그래피. Image 22856987.">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73A7DD75-518A-4A20-AFAF-CD081FD10A91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A7DD75-518A-4A20-AFAF-CD081FD10A91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3137,7 +3190,7 @@
         <xdr:cNvPr id="21" name="그림 20" descr="흙벽예찬 흙집 황토흙 황토벽 만들기 : 네이버 블로그">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83B1CAEC-6916-4667-B6B7-6D5CA8F07C50}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B1CAEC-6916-4667-B6B7-6D5CA8F07C50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3198,7 +3251,7 @@
         <xdr:cNvPr id="22" name="그림 21" descr="한 무더기의 부서진 돌 | 돌, 질감, 부서진">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B1CBA65-424B-48B0-9F15-CAACFBE26FD1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B1CBA65-424B-48B0-9F15-CAACFBE26FD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3259,7 +3312,7 @@
         <xdr:cNvPr id="23" name="그림 22" descr="열린목공방 - 철제느낌 원목 캐비넷-(열린목공방,강서구목공방,가구공방,diy가구교실,가구만들기)">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3368749B-661D-45C6-81F2-252344E62813}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3368749B-661D-45C6-81F2-252344E62813}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3320,7 +3373,7 @@
         <xdr:cNvPr id="24" name="그림 23" descr="에뛰드 하우스 :: 민트 캐비닛">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8132CFD6-9467-4DBC-BF74-C35A7E0B92AE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8132CFD6-9467-4DBC-BF74-C35A7E0B92AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3381,7 +3434,7 @@
         <xdr:cNvPr id="26" name="그림 25" descr="무빙 워크 및 에스컬레이터 컬렉션 3D 모델 $49 - .max .obj .fbx .3ds - Free3D">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8878A084-ABD0-4CA7-9562-B6724F38AD4E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8878A084-ABD0-4CA7-9562-B6724F38AD4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3442,7 +3495,7 @@
         <xdr:cNvPr id="27" name="그림 26" descr="무빙워크 사진, 이미지, 일러스트, 캘리그라피 - 크라우드픽">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DE7FDFD3-4B04-4094-9D31-A021B6898347}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE7FDFD3-4B04-4094-9D31-A021B6898347}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3503,7 +3556,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A40A416-6B54-4B0A-A9DF-8A0C4ED982EB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A40A416-6B54-4B0A-A9DF-8A0C4ED982EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3547,7 +3600,7 @@
         <xdr:cNvPr id="28" name="그림 27" descr="SCI FI 게이트 문 3D 모델 - TurboSquid 900190">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0725EBF-5F9F-449F-AF80-BC3617531254}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0725EBF-5F9F-449F-AF80-BC3617531254}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3613,7 +3666,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF548CA6-2AAA-4C3E-B39C-034A71AD561E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF548CA6-2AAA-4C3E-B39C-034A71AD561E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3949,7 +4002,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4104,7 +4157,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S3" sqref="S3:T3"/>
     </sheetView>
   </sheetViews>
@@ -4521,7 +4574,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4546,23 +4599,23 @@
       <c r="C1" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
       <c r="K1" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="L1" s="71" t="s">
+      <c r="L1" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
       <c r="O1" s="45" t="s">
         <v>115</v>
       </c>
@@ -4574,7 +4627,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="84" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="56" t="s">
@@ -4583,52 +4636,52 @@
       <c r="C2" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="77"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="95"/>
       <c r="K2" s="47"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="95"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="79"/>
       <c r="O2" s="37"/>
       <c r="P2" s="65" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A3" s="82"/>
+      <c r="A3" s="85"/>
       <c r="B3" s="57" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
       <c r="K3" s="48"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="80"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="76"/>
       <c r="O3" s="38"/>
       <c r="P3" s="66" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="86" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="57" t="s">
@@ -4637,80 +4690,80 @@
       <c r="C4" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="73"/>
       <c r="K4" s="48"/>
-      <c r="L4" s="86" t="s">
+      <c r="L4" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="M4" s="87"/>
-      <c r="N4" s="88"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="73"/>
       <c r="O4" s="38"/>
       <c r="P4" s="66" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A5" s="83"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="58" t="s">
         <v>97</v>
       </c>
       <c r="C5" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="74"/>
+      <c r="D5" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="48"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="80"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="76"/>
       <c r="O5" s="38"/>
       <c r="P5" s="66" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A6" s="83"/>
+    <row r="6" spans="1:17" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="86"/>
       <c r="B6" s="58" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="74"/>
+      <c r="D6" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="73"/>
       <c r="K6" s="48"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="76"/>
       <c r="O6" s="38"/>
       <c r="P6" s="66" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="84" t="s">
+    <row r="7" spans="1:17" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="87" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="57" t="s">
@@ -4719,74 +4772,78 @@
       <c r="C7" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="72" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="74"/>
+      <c r="D7" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="48"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="80"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="76"/>
       <c r="O7" s="38"/>
       <c r="P7" s="66" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A8" s="84"/>
+      <c r="A8" s="87"/>
       <c r="B8" s="59" t="s">
         <v>98</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="74"/>
+      <c r="D8" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="73"/>
       <c r="K8" s="48"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="80"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="76"/>
       <c r="O8" s="38"/>
       <c r="P8" s="66" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A9" s="84"/>
+      <c r="A9" s="87"/>
       <c r="B9" s="60" t="s">
         <v>99</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="74"/>
+      <c r="D9" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="73"/>
       <c r="K9" s="48"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="80"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="76"/>
       <c r="O9" s="38"/>
       <c r="P9" s="66" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="85" t="s">
+    <row r="10" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="88" t="s">
         <v>80</v>
       </c>
       <c r="B10" s="57" t="s">
@@ -4795,65 +4852,67 @@
       <c r="C10" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="74"/>
+      <c r="D10" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="73"/>
       <c r="K10" s="48"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="80"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="76"/>
       <c r="O10" s="38"/>
       <c r="P10" s="66" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="85"/>
+      <c r="A11" s="88"/>
       <c r="B11" s="60" t="s">
         <v>100</v>
       </c>
       <c r="C11" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="73"/>
       <c r="K11" s="48"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="80"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="76"/>
       <c r="O11" s="38"/>
       <c r="P11" s="66" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A12" s="85"/>
+      <c r="A12" s="88"/>
       <c r="B12" s="60" t="s">
         <v>101</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="74"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="73"/>
       <c r="K12" s="48"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="80"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="76"/>
       <c r="O12" s="38"/>
       <c r="P12" s="66" t="s">
         <v>134</v>
@@ -4869,17 +4928,17 @@
       <c r="C13" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="74"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="73"/>
       <c r="K13" s="48"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="80"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="76"/>
       <c r="O13" s="38"/>
       <c r="P13" s="66" t="s">
         <v>134</v>
@@ -4895,17 +4954,17 @@
       <c r="C14" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="74"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="73"/>
       <c r="K14" s="48"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="80"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="76"/>
       <c r="O14" s="38"/>
       <c r="P14" s="66" t="s">
         <v>134</v>
@@ -4921,17 +4980,17 @@
       <c r="C15" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="74"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="73"/>
       <c r="K15" s="48"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="80"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="76"/>
       <c r="O15" s="38"/>
       <c r="P15" s="66" t="s">
         <v>135</v>
@@ -4947,17 +5006,17 @@
       <c r="C16" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="74"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="73"/>
       <c r="K16" s="48"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="80"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="76"/>
       <c r="O16" s="38"/>
       <c r="P16" s="66" t="s">
         <v>135</v>
@@ -4973,19 +5032,19 @@
       <c r="C17" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="88"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="73"/>
       <c r="K17" s="48"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="80"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="76"/>
       <c r="O17" s="38"/>
       <c r="P17" s="66" t="s">
         <v>134</v>
@@ -5002,7 +5061,7 @@
         <v>110</v>
       </c>
       <c r="D18" s="96" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E18" s="97"/>
       <c r="F18" s="97"/>
@@ -5011,18 +5070,18 @@
       <c r="I18" s="97"/>
       <c r="J18" s="98"/>
       <c r="K18" s="55"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="92"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="83"/>
       <c r="O18" s="41"/>
       <c r="P18" s="67" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.4">
       <c r="J31" t="s">
@@ -5308,32 +5367,13 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L4:N4"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
@@ -5342,13 +5382,32 @@
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D9:J9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Aphelios_Database02.xlsx
+++ b/Documents/Aphelios_Database02.xlsx
@@ -421,7 +421,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="150">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -844,10 +844,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>우주에 와서 적응을 하고 있는 실험체에게 적응 훈련을 시키는 스토리를 가짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1125,19 +1121,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>카인의 영향을 받은 몬스터 첫 등장, 스테이지는 난장판이 되어있으며 맵 여기저기 피와 카인으로 얼룩져있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>앞서가던 침입자들이 괴물들을 막기 위한 흔적이 남아있음. (연출 고민 중)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그라비토를 연구하는 과정이었던 것으로 보이는 문서들과 계산식들이 곳곳에 널려있음, 중앙에 그라비토 하나가 전시되어 있음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우주에 와서 적응을 하고 있는 실험체에게 적응 훈련을 시키는 스토리를 가짐
+t1 ~ 1-2 까지 이너시오 연구실로, 안전과 이너시오 연구에 방해받지 않도록 다른 무기들의 파장을 차단시킴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카인의 영향을 받은 몬스터 첫 등장, 스테이지는 난장판이 되어있으며 맵 여기저기 피와 카인으로 얼룩져있음
+t2 ~ 2-2 까지 그랜드 연구실로, 안전과 그랜드 연구에 방해받지 않도록 다른 무기들의 파장을 차단시킴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그라비토를 연구하는 과정이었던 것으로 보이는 문서들과 계산식들이 곳곳에 널려있음, 중앙에 그라비토 하나가 전시되어 있음.
+t3 ~ 3-2 까지 이너시오 연구실로, 안전과 이너시오 연구에 방해받지 않도록 다른 무기들의 파장을 차단시킴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이브에서 풀어놓은 더 강한 괴물들을 마주함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파장 차단 전파를 관리하는 장치가 있는 곳으로, 괴물에 의해 일부 파손되어 시스템 오류가 생김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 오류로 인해 이너시오와 그랜드의 사용이 가능해짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 오류로 인해 이너시오와 그라비토의 사용이 가능해짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 오류로 인해 그랜드와 그라비토의 사용이 가능해짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 시스템을 관리하는 곳으로, 잭은 모든 보안 시스템을 종료시키고 비상탈출선을 준비시키게 됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2069,6 +2096,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2078,6 +2114,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2087,6 +2132,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2095,54 +2170,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2197,7 +2224,7 @@
         <xdr:cNvPr id="3" name="그림 2" descr="https://cdn.discordapp.com/attachments/774242422103736351/934409412544716840/a8396a44fdb9d6641c8a75d23271f3aa.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2265,7 +2292,7 @@
         <xdr:cNvPr id="5" name="그림 4" descr="Aperture Science Cube Button | Half-Life Wiki | Fandom">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2326,7 +2353,7 @@
         <xdr:cNvPr id="6" name="그림 5" descr="https://i.pinimg.com/564x/61/15/11/6115116df1c610a08907e4293954cb0d.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2387,7 +2414,7 @@
         <xdr:cNvPr id="7" name="그림 6" descr="https://i.pinimg.com/564x/af/e8/da/afe8da4183f3b6cf18a3b284689e9646.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2448,7 +2475,7 @@
         <xdr:cNvPr id="9" name="그림 8" descr="https://i.pinimg.com/564x/73/8f/25/738f251e22062a6310633e03196cf78e.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2509,7 +2536,7 @@
         <xdr:cNvPr id="11" name="그림 10" descr="https://i.pinimg.com/564x/21/dd/b0/21ddb0cf88a5d22026b2ca24a00fb9e9.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2570,7 +2597,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55BEB0A5-8E1B-4EDC-B8F5-5C9977DBAC5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55BEB0A5-8E1B-4EDC-B8F5-5C9977DBAC5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2641,7 +2668,7 @@
         <xdr:cNvPr id="10" name="그림 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65817B04-6B44-4749-8DD7-0B57026160FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65817B04-6B44-4749-8DD7-0B57026160FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2702,7 +2729,7 @@
         <xdr:cNvPr id="12" name="그림 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1267D9AF-8655-4E22-9659-DCA6EC557663}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1267D9AF-8655-4E22-9659-DCA6EC557663}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2763,7 +2790,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C9B5EC3-DD41-442B-87FC-4772B5C65FF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C9B5EC3-DD41-442B-87FC-4772B5C65FF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2824,7 +2851,7 @@
         <xdr:cNvPr id="14" name="그림 13" descr="현실적인 지구 3D 모델 $13 - .c4d - Free3D">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A94ADF76-5603-44B6-86DF-AEB1C6464B94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A94ADF76-5603-44B6-86DF-AEB1C6464B94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2885,7 +2912,7 @@
         <xdr:cNvPr id="15" name="그림 14" descr="폭염&amp;#39;에 갈색으로 변한 지구…우주에서 내려다본 모습은 - 조선일보">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ADE09E1-6302-4E22-AAFE-88B7A2FD3DD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6ADE09E1-6302-4E22-AAFE-88B7A2FD3DD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2946,7 +2973,7 @@
         <xdr:cNvPr id="16" name="그림 15" descr="우주정거장에서 본 지구 – kalkin7&amp;#39;s WordPress">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FFBC46C-B52B-4C67-8913-5C1F9468A416}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FFBC46C-B52B-4C67-8913-5C1F9468A416}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3007,7 +3034,7 @@
         <xdr:cNvPr id="17" name="그림 16" descr="우주 정거장 내부 화장실 방입니다 우주선에 변기와 빈 화장실 우주 비행사에 대 한 공간 화장실입니다 Mir Space Station에  대한 스톡 사진 및 기타 이미지 - iStock">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558B1A8E-0CB5-4C23-859C-075342765928}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{558B1A8E-0CB5-4C23-859C-075342765928}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3068,7 +3095,7 @@
         <xdr:cNvPr id="18" name="그림 17" descr="우주에서의 배설물은 어떻게 처리할까? : 네이버 블로그">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0AB486B-BE3F-49AB-9FE7-F85277FFE8FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0AB486B-BE3F-49AB-9FE7-F85277FFE8FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3129,7 +3156,7 @@
         <xdr:cNvPr id="20" name="그림 19" descr="배경으로 오래된 흙 벽 로열티 무료 사진, 그림, 이미지 그리고 스톡포토그래피. Image 22856987.">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A7DD75-518A-4A20-AFAF-CD081FD10A91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73A7DD75-518A-4A20-AFAF-CD081FD10A91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3190,7 +3217,7 @@
         <xdr:cNvPr id="21" name="그림 20" descr="흙벽예찬 흙집 황토흙 황토벽 만들기 : 네이버 블로그">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B1CAEC-6916-4667-B6B7-6D5CA8F07C50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83B1CAEC-6916-4667-B6B7-6D5CA8F07C50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3251,7 +3278,7 @@
         <xdr:cNvPr id="22" name="그림 21" descr="한 무더기의 부서진 돌 | 돌, 질감, 부서진">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B1CBA65-424B-48B0-9F15-CAACFBE26FD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B1CBA65-424B-48B0-9F15-CAACFBE26FD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3312,7 +3339,7 @@
         <xdr:cNvPr id="23" name="그림 22" descr="열린목공방 - 철제느낌 원목 캐비넷-(열린목공방,강서구목공방,가구공방,diy가구교실,가구만들기)">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3368749B-661D-45C6-81F2-252344E62813}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3368749B-661D-45C6-81F2-252344E62813}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3373,7 +3400,7 @@
         <xdr:cNvPr id="24" name="그림 23" descr="에뛰드 하우스 :: 민트 캐비닛">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8132CFD6-9467-4DBC-BF74-C35A7E0B92AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8132CFD6-9467-4DBC-BF74-C35A7E0B92AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3434,7 +3461,7 @@
         <xdr:cNvPr id="26" name="그림 25" descr="무빙 워크 및 에스컬레이터 컬렉션 3D 모델 $49 - .max .obj .fbx .3ds - Free3D">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8878A084-ABD0-4CA7-9562-B6724F38AD4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8878A084-ABD0-4CA7-9562-B6724F38AD4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3495,7 +3522,7 @@
         <xdr:cNvPr id="27" name="그림 26" descr="무빙워크 사진, 이미지, 일러스트, 캘리그라피 - 크라우드픽">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE7FDFD3-4B04-4094-9D31-A021B6898347}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DE7FDFD3-4B04-4094-9D31-A021B6898347}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3556,7 +3583,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A40A416-6B54-4B0A-A9DF-8A0C4ED982EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A40A416-6B54-4B0A-A9DF-8A0C4ED982EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3600,7 +3627,7 @@
         <xdr:cNvPr id="28" name="그림 27" descr="SCI FI 게이트 문 3D 모델 - TurboSquid 900190">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0725EBF-5F9F-449F-AF80-BC3617531254}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0725EBF-5F9F-449F-AF80-BC3617531254}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3666,7 +3693,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF548CA6-2AAA-4C3E-B39C-034A71AD561E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF548CA6-2AAA-4C3E-B39C-034A71AD561E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4002,7 +4029,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4133,13 +4160,13 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="3">
         <v>44630</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4574,7 +4601,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4591,67 +4618,67 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="43" t="s">
-        <v>96</v>
-      </c>
       <c r="C1" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="43" t="s">
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="L1" s="89" t="s">
-        <v>109</v>
-      </c>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="45" t="s">
-        <v>115</v>
-      </c>
       <c r="P1" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q1" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A2" s="84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="79"/>
       <c r="K2" s="47"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="79"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="95"/>
       <c r="O2" s="37"/>
       <c r="P2" s="65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
@@ -4662,22 +4689,22 @@
       <c r="C3" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
+      <c r="D3" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
       <c r="K3" s="48"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="76"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="82"/>
       <c r="O3" s="38"/>
       <c r="P3" s="66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="138" customHeight="1" x14ac:dyDescent="0.4">
@@ -4688,81 +4715,81 @@
         <v>86</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="71" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="73"/>
+        <v>130</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="48"/>
-      <c r="L4" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="73"/>
+      <c r="L4" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="M4" s="75"/>
+      <c r="N4" s="76"/>
       <c r="O4" s="38"/>
       <c r="P4" s="66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A5" s="86"/>
       <c r="B5" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="71" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="73"/>
+        <v>120</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="48"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="76"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="82"/>
       <c r="O5" s="38"/>
       <c r="P5" s="66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="86"/>
       <c r="B6" s="58" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="71" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="73"/>
+        <v>121</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="76"/>
       <c r="K6" s="48"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="76"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
       <c r="O6" s="38"/>
       <c r="P6" s="66" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="87" t="s">
         <v>79</v>
       </c>
@@ -4770,79 +4797,79 @@
         <v>87</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="73"/>
+        <v>128</v>
+      </c>
+      <c r="D7" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76"/>
       <c r="K7" s="48"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="76"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="82"/>
       <c r="O7" s="38"/>
       <c r="P7" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A8" s="87"/>
       <c r="B8" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="73"/>
+        <v>118</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="76"/>
       <c r="K8" s="48"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="76"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="82"/>
       <c r="O8" s="38"/>
       <c r="P8" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A9" s="87"/>
       <c r="B9" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="73"/>
+        <v>119</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="76"/>
       <c r="K9" s="48"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="76"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="82"/>
       <c r="O9" s="38"/>
       <c r="P9" s="66" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="79.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="88" t="s">
         <v>80</v>
       </c>
@@ -4850,72 +4877,76 @@
         <v>88</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="73"/>
+        <v>129</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="76"/>
       <c r="K10" s="48"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="76"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="82"/>
       <c r="O10" s="38"/>
       <c r="P10" s="66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A11" s="88"/>
       <c r="B11" s="60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="73"/>
+        <v>122</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="76"/>
       <c r="K11" s="48"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="76"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="82"/>
       <c r="O11" s="38"/>
       <c r="P11" s="66" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="88"/>
       <c r="B12" s="60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="73"/>
+        <v>123</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="76"/>
       <c r="K12" s="48"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="76"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="82"/>
       <c r="O12" s="38"/>
       <c r="P12" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
@@ -4923,25 +4954,27 @@
         <v>71</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="73"/>
+        <v>124</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="76"/>
       <c r="K13" s="48"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="76"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="82"/>
       <c r="O13" s="38"/>
       <c r="P13" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
@@ -4949,25 +4982,27 @@
         <v>72</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="73"/>
+        <v>125</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="76"/>
       <c r="K14" s="48"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="76"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="82"/>
       <c r="O14" s="38"/>
       <c r="P14" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
@@ -4975,93 +5010,97 @@
         <v>73</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="73"/>
+        <v>126</v>
+      </c>
+      <c r="D15" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="76"/>
       <c r="K15" s="48"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="76"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="82"/>
       <c r="O15" s="38"/>
       <c r="P15" s="66" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="41.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="52" t="s">
         <v>74</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="73"/>
+        <v>127</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="76"/>
       <c r="K16" s="48"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="76"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="82"/>
       <c r="O16" s="38"/>
       <c r="P16" s="66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="73"/>
+        <v>116</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="76"/>
       <c r="K17" s="48"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="76"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="82"/>
       <c r="O17" s="38"/>
       <c r="P17" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18" s="96" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18" s="97"/>
       <c r="F18" s="97"/>
@@ -5070,18 +5109,18 @@
       <c r="I18" s="97"/>
       <c r="J18" s="98"/>
       <c r="K18" s="55"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="83"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="92"/>
       <c r="O18" s="41"/>
       <c r="P18" s="67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.4">
       <c r="J31" t="s">
@@ -5367,13 +5406,32 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L15:N15"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
@@ -5382,32 +5440,13 @@
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="D6:J6"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L4:N4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Aphelios_Database02.xlsx
+++ b/Documents/Aphelios_Database02.xlsx
@@ -197,7 +197,386 @@
         </r>
       </text>
     </comment>
+    <comment ref="C7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>남상현</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>무기를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>획득하고
+그에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>따른</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용법을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>배우는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>튜토리얼</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스테이지</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>남상현</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자릿수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에서
+첫째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자리는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>등장</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>순서
+둘째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자리와</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>셋째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자리는
+무기들의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조합을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>의미</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -421,7 +800,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="168">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1165,6 +1544,70 @@
   </si>
   <si>
     <t>모든 시스템을 관리하는 곳으로, 잭은 모든 보안 시스템을 종료시키고 비상탈출선을 준비시키게 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구역 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-02</t>
+  </si>
+  <si>
+    <t>A-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-03</t>
+  </si>
+  <si>
+    <t>B-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-02</t>
+  </si>
+  <si>
+    <t>B-03</t>
+  </si>
+  <si>
+    <t>C-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-02</t>
+  </si>
+  <si>
+    <t>C-03</t>
+  </si>
+  <si>
+    <t>D-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D-02</t>
+  </si>
+  <si>
+    <t>D-03</t>
+  </si>
+  <si>
+    <t>SYSTEM-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z-09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z-08</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1402,7 +1845,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1560,70 +2003,12 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1653,19 +2038,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1795,21 +2167,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1876,13 +2233,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1994,191 +2386,194 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2224,7 +2619,7 @@
         <xdr:cNvPr id="3" name="그림 2" descr="https://cdn.discordapp.com/attachments/774242422103736351/934409412544716840/a8396a44fdb9d6641c8a75d23271f3aa.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2292,7 +2687,7 @@
         <xdr:cNvPr id="5" name="그림 4" descr="Aperture Science Cube Button | Half-Life Wiki | Fandom">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2353,7 +2748,7 @@
         <xdr:cNvPr id="6" name="그림 5" descr="https://i.pinimg.com/564x/61/15/11/6115116df1c610a08907e4293954cb0d.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2414,7 +2809,7 @@
         <xdr:cNvPr id="7" name="그림 6" descr="https://i.pinimg.com/564x/af/e8/da/afe8da4183f3b6cf18a3b284689e9646.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2475,7 +2870,7 @@
         <xdr:cNvPr id="9" name="그림 8" descr="https://i.pinimg.com/564x/73/8f/25/738f251e22062a6310633e03196cf78e.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2536,7 +2931,7 @@
         <xdr:cNvPr id="11" name="그림 10" descr="https://i.pinimg.com/564x/21/dd/b0/21ddb0cf88a5d22026b2ca24a00fb9e9.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2597,7 +2992,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55BEB0A5-8E1B-4EDC-B8F5-5C9977DBAC5E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55BEB0A5-8E1B-4EDC-B8F5-5C9977DBAC5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2668,7 +3063,7 @@
         <xdr:cNvPr id="10" name="그림 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65817B04-6B44-4749-8DD7-0B57026160FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65817B04-6B44-4749-8DD7-0B57026160FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2729,7 +3124,7 @@
         <xdr:cNvPr id="12" name="그림 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1267D9AF-8655-4E22-9659-DCA6EC557663}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1267D9AF-8655-4E22-9659-DCA6EC557663}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2790,7 +3185,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C9B5EC3-DD41-442B-87FC-4772B5C65FF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C9B5EC3-DD41-442B-87FC-4772B5C65FF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2851,7 +3246,7 @@
         <xdr:cNvPr id="14" name="그림 13" descr="현실적인 지구 3D 모델 $13 - .c4d - Free3D">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A94ADF76-5603-44B6-86DF-AEB1C6464B94}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A94ADF76-5603-44B6-86DF-AEB1C6464B94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2912,7 +3307,7 @@
         <xdr:cNvPr id="15" name="그림 14" descr="폭염&amp;#39;에 갈색으로 변한 지구…우주에서 내려다본 모습은 - 조선일보">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6ADE09E1-6302-4E22-AAFE-88B7A2FD3DD7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ADE09E1-6302-4E22-AAFE-88B7A2FD3DD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2973,7 +3368,7 @@
         <xdr:cNvPr id="16" name="그림 15" descr="우주정거장에서 본 지구 – kalkin7&amp;#39;s WordPress">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FFBC46C-B52B-4C67-8913-5C1F9468A416}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FFBC46C-B52B-4C67-8913-5C1F9468A416}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3034,7 +3429,7 @@
         <xdr:cNvPr id="17" name="그림 16" descr="우주 정거장 내부 화장실 방입니다 우주선에 변기와 빈 화장실 우주 비행사에 대 한 공간 화장실입니다 Mir Space Station에  대한 스톡 사진 및 기타 이미지 - iStock">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{558B1A8E-0CB5-4C23-859C-075342765928}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558B1A8E-0CB5-4C23-859C-075342765928}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3095,7 +3490,7 @@
         <xdr:cNvPr id="18" name="그림 17" descr="우주에서의 배설물은 어떻게 처리할까? : 네이버 블로그">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0AB486B-BE3F-49AB-9FE7-F85277FFE8FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0AB486B-BE3F-49AB-9FE7-F85277FFE8FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3156,7 +3551,7 @@
         <xdr:cNvPr id="20" name="그림 19" descr="배경으로 오래된 흙 벽 로열티 무료 사진, 그림, 이미지 그리고 스톡포토그래피. Image 22856987.">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73A7DD75-518A-4A20-AFAF-CD081FD10A91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A7DD75-518A-4A20-AFAF-CD081FD10A91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3217,7 +3612,7 @@
         <xdr:cNvPr id="21" name="그림 20" descr="흙벽예찬 흙집 황토흙 황토벽 만들기 : 네이버 블로그">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83B1CAEC-6916-4667-B6B7-6D5CA8F07C50}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B1CAEC-6916-4667-B6B7-6D5CA8F07C50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3278,7 +3673,7 @@
         <xdr:cNvPr id="22" name="그림 21" descr="한 무더기의 부서진 돌 | 돌, 질감, 부서진">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B1CBA65-424B-48B0-9F15-CAACFBE26FD1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B1CBA65-424B-48B0-9F15-CAACFBE26FD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3339,7 +3734,7 @@
         <xdr:cNvPr id="23" name="그림 22" descr="열린목공방 - 철제느낌 원목 캐비넷-(열린목공방,강서구목공방,가구공방,diy가구교실,가구만들기)">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3368749B-661D-45C6-81F2-252344E62813}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3368749B-661D-45C6-81F2-252344E62813}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3400,7 +3795,7 @@
         <xdr:cNvPr id="24" name="그림 23" descr="에뛰드 하우스 :: 민트 캐비닛">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8132CFD6-9467-4DBC-BF74-C35A7E0B92AE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8132CFD6-9467-4DBC-BF74-C35A7E0B92AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3461,7 +3856,7 @@
         <xdr:cNvPr id="26" name="그림 25" descr="무빙 워크 및 에스컬레이터 컬렉션 3D 모델 $49 - .max .obj .fbx .3ds - Free3D">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8878A084-ABD0-4CA7-9562-B6724F38AD4E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8878A084-ABD0-4CA7-9562-B6724F38AD4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3522,7 +3917,7 @@
         <xdr:cNvPr id="27" name="그림 26" descr="무빙워크 사진, 이미지, 일러스트, 캘리그라피 - 크라우드픽">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DE7FDFD3-4B04-4094-9D31-A021B6898347}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE7FDFD3-4B04-4094-9D31-A021B6898347}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3583,7 +3978,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A40A416-6B54-4B0A-A9DF-8A0C4ED982EB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A40A416-6B54-4B0A-A9DF-8A0C4ED982EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3627,7 +4022,7 @@
         <xdr:cNvPr id="28" name="그림 27" descr="SCI FI 게이트 문 3D 모델 - TurboSquid 900190">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0725EBF-5F9F-449F-AF80-BC3617531254}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0725EBF-5F9F-449F-AF80-BC3617531254}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3677,13 +4072,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>20395</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>2880501</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1662730</xdr:rowOff>
@@ -3693,7 +4088,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF548CA6-2AAA-4C3E-B39C-034A71AD561E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF548CA6-2AAA-4C3E-B39C-034A71AD561E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4029,7 +4424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4049,58 +4444,58 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4130,11 +4525,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
@@ -4597,856 +4992,911 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U52"/>
+  <dimension ref="A1:V52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.09765625" customWidth="1"/>
-    <col min="2" max="2" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.8984375" customWidth="1"/>
-    <col min="6" max="6" width="17.59765625" customWidth="1"/>
-    <col min="11" max="11" width="28.59765625" customWidth="1"/>
-    <col min="15" max="15" width="38.59765625" customWidth="1"/>
-    <col min="16" max="16" width="28.59765625" customWidth="1"/>
-    <col min="17" max="17" width="10.09765625" customWidth="1"/>
+    <col min="2" max="2" width="9.69921875" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" customWidth="1"/>
+    <col min="4" max="4" width="28.8984375" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" customWidth="1"/>
+    <col min="12" max="12" width="28.59765625" customWidth="1"/>
+    <col min="16" max="16" width="38.59765625" customWidth="1"/>
+    <col min="17" max="17" width="28.59765625" customWidth="1"/>
+    <col min="18" max="18" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="99" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="E1" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="43" t="s">
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="83" t="s">
+      <c r="M1" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="45" t="s">
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="Q1" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="R1" s="43" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A2" s="84" t="s">
+    <row r="2" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="E2" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="65" t="s">
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="59" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A3" s="85"/>
-      <c r="B3" s="57" t="s">
+    <row r="3" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="90"/>
+      <c r="B3" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="E3" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="66" t="s">
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="60" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="86" t="s">
+    <row r="4" spans="1:18" ht="138" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="E4" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="74" t="s">
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="M4" s="75"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="66" t="s">
+      <c r="N4" s="66"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="60" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A5" s="86"/>
-      <c r="B5" s="58" t="s">
+    <row r="5" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="91"/>
+      <c r="B5" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="E5" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="66" t="s">
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="60" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="86"/>
-      <c r="B6" s="58" t="s">
+    <row r="6" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="91"/>
+      <c r="B6" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="E6" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="66" t="s">
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="60" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="87" t="s">
+    <row r="7" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="E7" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="66" t="s">
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="60" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A8" s="87"/>
-      <c r="B8" s="59" t="s">
+    <row r="8" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="92"/>
+      <c r="B8" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="E8" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="66" t="s">
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="60" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A9" s="87"/>
-      <c r="B9" s="60" t="s">
+    <row r="9" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="92"/>
+      <c r="B9" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="E9" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="66" t="s">
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="60" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="79.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="88" t="s">
+    <row r="10" spans="1:18" ht="79.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="E10" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="66" t="s">
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="60" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="88"/>
-      <c r="B11" s="60" t="s">
+    <row r="11" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="93"/>
+      <c r="B11" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="E11" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="66" t="s">
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="60" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="88"/>
-      <c r="B12" s="60" t="s">
+    <row r="12" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="93"/>
+      <c r="B12" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="E12" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="66" t="s">
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="60" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A13" s="49" t="s">
+    <row r="13" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="E13" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="66" t="s">
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="60" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A14" s="50" t="s">
+    <row r="14" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="E14" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="66" t="s">
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="60" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A15" s="51" t="s">
+    <row r="15" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="74" t="s">
+      <c r="E15" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="66" t="s">
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="60" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="41.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="52" t="s">
+    <row r="16" spans="1:18" ht="41.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="E16" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="66" t="s">
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="60" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="52" t="s">
+    <row r="17" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="E17" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="66" t="s">
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="60" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="53" t="s">
+    <row r="18" spans="1:21" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="96" t="s">
+      <c r="E18" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="67" t="s">
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="61" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="J31" t="s">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="K31" t="s">
         <v>85</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>78</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
       </c>
       <c r="O31">
         <v>1</v>
       </c>
-      <c r="Q31">
+      <c r="P31">
         <v>1</v>
       </c>
       <c r="R31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="J32" t="s">
+      <c r="S31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="K32" t="s">
         <v>83</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>84</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
       </c>
       <c r="O32">
         <v>1</v>
       </c>
-      <c r="Q32">
+      <c r="P32">
         <v>1</v>
       </c>
       <c r="R32">
         <v>1</v>
       </c>
-      <c r="T32">
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="U32">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="J33" t="s">
+    <row r="33" spans="9:22" x14ac:dyDescent="0.4">
+      <c r="K33" t="s">
         <v>82</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>27</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
       </c>
       <c r="O33">
         <v>1</v>
       </c>
-      <c r="Q33">
+      <c r="P33">
         <v>1</v>
       </c>
       <c r="R33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="H34" t="s">
+      <c r="S33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="9:22" x14ac:dyDescent="0.4">
+      <c r="I34" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="H35">
+    <row r="35" spans="9:22" x14ac:dyDescent="0.4">
+      <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>63</v>
       </c>
-      <c r="L35" s="36">
+      <c r="M35" s="36">
         <v>3</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>70</v>
       </c>
-      <c r="Q35" s="36">
+      <c r="R35" s="36">
         <v>1</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>78</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="H36">
+    <row r="36" spans="9:22" x14ac:dyDescent="0.4">
+      <c r="I36">
         <v>2</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>64</v>
       </c>
-      <c r="L36" s="36">
+      <c r="M36" s="36">
         <v>3</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>70</v>
       </c>
-      <c r="Q36" s="36">
+      <c r="R36" s="36">
         <v>1</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>78</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="J37" t="s">
+    <row r="37" spans="9:22" x14ac:dyDescent="0.4">
+      <c r="K37" t="s">
         <v>65</v>
       </c>
-      <c r="L37" s="36">
+      <c r="M37" s="36">
         <v>3</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>70</v>
       </c>
-      <c r="Q37" s="36">
+      <c r="R37" s="36">
         <v>1</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>78</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="L38" s="36"/>
-      <c r="Q38" s="36"/>
-      <c r="S38" t="s">
+    <row r="38" spans="9:22" x14ac:dyDescent="0.4">
+      <c r="M38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="T38" t="s">
         <v>79</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="H39">
+    <row r="39" spans="9:22" x14ac:dyDescent="0.4">
+      <c r="I39">
         <v>3</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>71</v>
       </c>
-      <c r="L39" s="36">
+      <c r="M39" s="36">
         <v>1</v>
       </c>
-      <c r="Q39" s="36">
+      <c r="R39" s="36">
         <v>2</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="J40" t="s">
+    <row r="40" spans="9:22" x14ac:dyDescent="0.4">
+      <c r="K40" t="s">
         <v>72</v>
       </c>
-      <c r="L40" s="36">
+      <c r="M40" s="36">
         <v>1</v>
       </c>
-      <c r="Q40" s="36">
+      <c r="R40" s="36">
         <v>2</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="J41" t="s">
+    <row r="41" spans="9:22" x14ac:dyDescent="0.4">
+      <c r="K41" t="s">
         <v>73</v>
       </c>
-      <c r="L41" s="36">
+      <c r="M41" s="36">
         <v>1</v>
       </c>
-      <c r="Q41" s="36">
+      <c r="R41" s="36">
         <v>2</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="I42" t="s">
+    <row r="42" spans="9:22" x14ac:dyDescent="0.4">
+      <c r="J42" t="s">
         <v>76</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>74</v>
       </c>
-      <c r="L42" s="36">
+      <c r="M42" s="36">
         <v>1</v>
       </c>
-      <c r="Q42" s="36">
+      <c r="R42" s="36">
         <v>4</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="L43" s="36"/>
-      <c r="Q43" s="36"/>
-      <c r="S43" t="s">
+    <row r="43" spans="9:22" x14ac:dyDescent="0.4">
+      <c r="M43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="T43" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="I44" t="s">
+    <row r="44" spans="9:22" x14ac:dyDescent="0.4">
+      <c r="J44" t="s">
         <v>76</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>66</v>
       </c>
-      <c r="L44" s="36">
+      <c r="M44" s="36">
         <v>1</v>
       </c>
-      <c r="Q44" s="36">
+      <c r="R44" s="36">
         <v>3</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>71</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="I45" t="s">
+    <row r="45" spans="9:22" x14ac:dyDescent="0.4">
+      <c r="J45" t="s">
         <v>76</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>67</v>
       </c>
-      <c r="L45" s="36">
+      <c r="M45" s="36">
         <v>1</v>
       </c>
-      <c r="Q45" s="36">
+      <c r="R45" s="36">
         <v>0.5</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="S46" t="s">
+    <row r="46" spans="9:22" x14ac:dyDescent="0.4">
+      <c r="T46" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="8:21" x14ac:dyDescent="0.4">
-      <c r="J47" t="s">
+    <row r="47" spans="9:22" x14ac:dyDescent="0.4">
+      <c r="K47" t="s">
         <v>75</v>
       </c>
-      <c r="L47">
-        <f>SUM(L35:L45)</f>
+      <c r="M47">
+        <f>SUM(M35:M45)</f>
         <v>15</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="10:12" x14ac:dyDescent="0.4">
-      <c r="L49">
+    <row r="49" spans="11:13" x14ac:dyDescent="0.4">
+      <c r="M49">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="10:12" x14ac:dyDescent="0.4">
-      <c r="J51" t="s">
+    <row r="51" spans="11:13" x14ac:dyDescent="0.4">
+      <c r="K51" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="10:12" x14ac:dyDescent="0.4">
-      <c r="J52" t="s">
+    <row r="52" spans="11:13" x14ac:dyDescent="0.4">
+      <c r="K52" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M4:O4"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="E18:K18"/>
+    <mergeCell ref="E16:K16"/>
+    <mergeCell ref="E17:K17"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="E9:K9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Aphelios_Database02.xlsx
+++ b/Documents/Aphelios_Database02.xlsx
@@ -12,7 +12,7 @@
     <sheet name="obj" sheetId="1" r:id="rId3"/>
     <sheet name="stage" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -929,7 +929,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="176">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1132,25 +1132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>벽에 박혀 있는 침대를
-기용할 겁니다.
-Sf적인 느낌이 들게 하기
-위하여, 벽면에는 여러
-버튼이 있으며, 천장에는
-침대를 비추는, 사각형의
-큰 조명이 있으면 좋겠어요. 그리고, 추가로 여러 모니터 같은 게 붙어 있으면 더 좋을 거 같아요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흰색 점토로 만들어진 듯 한 벽에
-금이 있어, 일정 이상의 힘을 가하면
-부서질 것만 같은 벽이 필요합니다.
-또한 일정 이상의 힘이 가해진다면
-벽이 여러 조각으로 분해되어
-바닥을 나뒹굴어야 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>움직이는 발판이 존재하며, 버튼과 연계된 발판의 경우 
 버튼 활성화 시 3초에 걸쳐 목적 위치까지 도달함</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1166,11 +1147,6 @@
   <si>
     <t>3면에서 닫힙니다.
 상, 좌, 우측에서 문의 3분의 1씩 나와 문을 구성합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1번과는 다르게 좌, 우
-양쪽에서 열리고 닫힙니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1568,15 +1544,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>잠긴 캐비닛은 깔끔해야
-합니다. 살짝 색이 바랜,
-페인트의 색이 바랜
-그런 부분이 있지만
-흠집이나 기능적으로는
-문제가 없어 보여야 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>흠집등이 있고, 페인트의
 색이 바라는 등 오랜 시간
 동안 사용하였지만, 어느날
@@ -1585,30 +1552,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>컨베이어 벨트와 같은
-외형입니다. 하단부에 깔린
-벨트가 지정된 방향으로 
-움직입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10m x 1m x 3m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>바닥 트리거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>면보다는 모서리를 강조한
-외형에 면에는 "이브"의
-아이콘을 넣어주세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽에 고정된 패널에 버튼이
-부착된 외형으로 부탁드립
-니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1622,16 +1570,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>벽에 붙어 있는, 스탠딩 등
-여러 가지 형태의 스크린이
-있으며, 스크린의 색은
-파란색 계열을 써서 만들어
-주시고, 엣지 부분은 무채색
-계열을 사용하고 날카로운
-느낌이 들게 해주세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>도어락</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1639,16 +1577,6 @@
     <t>열 수 있는 모든 문 들'을 
 특정 조건이 만족되기 전 까지
 문을 열지 못하게 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>번호를 알면 열 수 있는
-키패드형 도어락과
-손바닥을 찍어야 열 수 있는
-스캔형 도어락이 있습니다.
-둘 다 엣지는 무채색 계열로
-날카롭게 디자인 해주시고
-스크린 부분은 밝은 파란색 계열로 만들어주세요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2321,6 +2249,82 @@
       </rPr>
       <t xml:space="preserve"> 연구에 방해받지 않도록 다른 무기들의 파장을 차단시킴</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 x 0.8 x 0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5 x 1 x 0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽에 박혀 있는 침대를 기용할 겁니다.
+Sf적인 느낌이 들게 하기 위하여 벽면에는 여러 버튼이 있으며, 천장에는 침대를 비추는, 사각형의 큰 조명이 있으면 좋겠어요. 
+추가로 여러 모니터 같은 게 붙어 있으면 더 좋을 거 같아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠긴 캐비닛은 깔끔해야 합니다. 
+살짝 색이 바랜, 페인트의 색이 바랜 그런 부분이 있지만 흠집이나 기능적으로는 문제가 없어 보여야 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨베이어 벨트와 같은 외형입니다. 
+하단부에 깔린 벨트가 지정된 방향으로 움직입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번과는 다르게 좌, 우 양쪽에서 열리고 닫힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽에 고정된 패널에 버튼이 부착된 외형으로 부탁드립
+니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰색 점토로 만들어진 듯 한 벽에 금이 있어, 일정 이상의 힘을 가하면 부서질 것만 같은 벽이 필요합니다.
+또한 일정 이상의 힘이 가해진다면 벽이 여러 조각으로 분해되어 바닥을 나뒹굴어야 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>면보다는 모서리를 강조한 외형에 면에는 "이브"의
+아이콘을 넣어주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽에 붙어 있는 스탠딩 등 여러 가지 형태의 스크린이
+있으며, 스크린의 색은 파란색 계열을 써서 만들어 주시고, 엣지 부분은 무채색 계열을 사용하며 날카로운
+느낌이 들게 해주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호를 알면 열 수 있는 키패드형 도어락과
+손바닥을 찍어야 열 수 있는 스캔형 도어락이 있습니다.
+둘 다 엣지는 무채색 계열로 날카롭게 디자인 해주시고
+스크린 부분은 밝은 파란색 계열로 만들어주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인은 무채색계열로 깔끔하고 심플했으면 좋겠고, 형태는 바퀴가 없고 겹쳐질 수 있는 형태로 해주세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2556,7 +2560,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -2582,56 +2586,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2689,19 +2643,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </left>
@@ -2710,34 +2651,6 @@
       </right>
       <top style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
@@ -2764,19 +2677,6 @@
         <color theme="0" tint="-0.24994659260841701"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </right>
       <top style="thin">
@@ -2797,74 +2697,7 @@
       <top style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2881,42 +2714,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </left>
       <right style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -3067,13 +2869,274 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3095,293 +3158,308 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3427,7 +3505,7 @@
         <xdr:cNvPr id="3" name="그림 2" descr="https://cdn.discordapp.com/attachments/774242422103736351/934409412544716840/a8396a44fdb9d6641c8a75d23271f3aa.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3495,7 +3573,7 @@
         <xdr:cNvPr id="6" name="그림 5" descr="https://i.pinimg.com/564x/61/15/11/6115116df1c610a08907e4293954cb0d.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3556,7 +3634,7 @@
         <xdr:cNvPr id="7" name="그림 6" descr="https://i.pinimg.com/564x/af/e8/da/afe8da4183f3b6cf18a3b284689e9646.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3617,7 +3695,7 @@
         <xdr:cNvPr id="9" name="그림 8" descr="https://i.pinimg.com/564x/73/8f/25/738f251e22062a6310633e03196cf78e.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3678,7 +3756,7 @@
         <xdr:cNvPr id="11" name="그림 10" descr="https://i.pinimg.com/564x/21/dd/b0/21ddb0cf88a5d22026b2ca24a00fb9e9.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3739,7 +3817,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55BEB0A5-8E1B-4EDC-B8F5-5C9977DBAC5E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55BEB0A5-8E1B-4EDC-B8F5-5C9977DBAC5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3810,7 +3888,7 @@
         <xdr:cNvPr id="10" name="그림 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65817B04-6B44-4749-8DD7-0B57026160FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65817B04-6B44-4749-8DD7-0B57026160FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3871,7 +3949,7 @@
         <xdr:cNvPr id="12" name="그림 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1267D9AF-8655-4E22-9659-DCA6EC557663}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1267D9AF-8655-4E22-9659-DCA6EC557663}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3932,7 +4010,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C9B5EC3-DD41-442B-87FC-4772B5C65FF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C9B5EC3-DD41-442B-87FC-4772B5C65FF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3993,7 +4071,7 @@
         <xdr:cNvPr id="14" name="그림 13" descr="현실적인 지구 3D 모델 $13 - .c4d - Free3D">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A94ADF76-5603-44B6-86DF-AEB1C6464B94}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A94ADF76-5603-44B6-86DF-AEB1C6464B94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4054,7 +4132,7 @@
         <xdr:cNvPr id="15" name="그림 14" descr="폭염&amp;#39;에 갈색으로 변한 지구…우주에서 내려다본 모습은 - 조선일보">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6ADE09E1-6302-4E22-AAFE-88B7A2FD3DD7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ADE09E1-6302-4E22-AAFE-88B7A2FD3DD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4115,7 +4193,7 @@
         <xdr:cNvPr id="16" name="그림 15" descr="우주정거장에서 본 지구 – kalkin7&amp;#39;s WordPress">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FFBC46C-B52B-4C67-8913-5C1F9468A416}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FFBC46C-B52B-4C67-8913-5C1F9468A416}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4176,7 +4254,7 @@
         <xdr:cNvPr id="17" name="그림 16" descr="우주 정거장 내부 화장실 방입니다 우주선에 변기와 빈 화장실 우주 비행사에 대 한 공간 화장실입니다 Mir Space Station에  대한 스톡 사진 및 기타 이미지 - iStock">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{558B1A8E-0CB5-4C23-859C-075342765928}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558B1A8E-0CB5-4C23-859C-075342765928}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4237,7 +4315,7 @@
         <xdr:cNvPr id="18" name="그림 17" descr="우주에서의 배설물은 어떻게 처리할까? : 네이버 블로그">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0AB486B-BE3F-49AB-9FE7-F85277FFE8FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0AB486B-BE3F-49AB-9FE7-F85277FFE8FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4298,7 +4376,7 @@
         <xdr:cNvPr id="20" name="그림 19" descr="배경으로 오래된 흙 벽 로열티 무료 사진, 그림, 이미지 그리고 스톡포토그래피. Image 22856987.">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73A7DD75-518A-4A20-AFAF-CD081FD10A91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A7DD75-518A-4A20-AFAF-CD081FD10A91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4359,7 +4437,7 @@
         <xdr:cNvPr id="21" name="그림 20" descr="흙벽예찬 흙집 황토흙 황토벽 만들기 : 네이버 블로그">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83B1CAEC-6916-4667-B6B7-6D5CA8F07C50}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B1CAEC-6916-4667-B6B7-6D5CA8F07C50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4420,7 +4498,7 @@
         <xdr:cNvPr id="22" name="그림 21" descr="한 무더기의 부서진 돌 | 돌, 질감, 부서진">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B1CBA65-424B-48B0-9F15-CAACFBE26FD1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B1CBA65-424B-48B0-9F15-CAACFBE26FD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4481,7 +4559,7 @@
         <xdr:cNvPr id="23" name="그림 22" descr="열린목공방 - 철제느낌 원목 캐비넷-(열린목공방,강서구목공방,가구공방,diy가구교실,가구만들기)">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3368749B-661D-45C6-81F2-252344E62813}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3368749B-661D-45C6-81F2-252344E62813}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4542,7 +4620,7 @@
         <xdr:cNvPr id="24" name="그림 23" descr="에뛰드 하우스 :: 민트 캐비닛">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8132CFD6-9467-4DBC-BF74-C35A7E0B92AE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8132CFD6-9467-4DBC-BF74-C35A7E0B92AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4601,7 +4679,7 @@
         <xdr:cNvPr id="28" name="그림 27" descr="SCI FI 게이트 문 3D 모델 - TurboSquid 900190">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0725EBF-5F9F-449F-AF80-BC3617531254}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0725EBF-5F9F-449F-AF80-BC3617531254}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4653,7 +4731,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>498850</xdr:colOff>
+      <xdr:colOff>498849</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>2228088</xdr:rowOff>
     </xdr:to>
@@ -4662,7 +4740,7 @@
         <xdr:cNvPr id="29" name="그림 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{77BC4DA1-4E17-4444-9511-A2F1E1215683}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77BC4DA1-4E17-4444-9511-A2F1E1215683}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4706,7 +4784,7 @@
         <xdr:cNvPr id="32" name="그림 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B68CE0E-A988-4BE7-9872-D5AEFEF76DB4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B68CE0E-A988-4BE7-9872-D5AEFEF76DB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4767,7 +4845,7 @@
         <xdr:cNvPr id="33" name="그림 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81ABA614-EF88-4357-86E1-E9157FD1CC51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81ABA614-EF88-4357-86E1-E9157FD1CC51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4828,7 +4906,7 @@
         <xdr:cNvPr id="34" name="그림 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{174B4725-A545-4A3D-B5B2-536DCF2CA711}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{174B4725-A545-4A3D-B5B2-536DCF2CA711}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4889,7 +4967,7 @@
         <xdr:cNvPr id="35" name="그림 34" descr="컨베이어 벨트 3D 모델 - TurboSquid 909860">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93EF4E07-9F07-4C58-A639-ECE92938B5A6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93EF4E07-9F07-4C58-A639-ECE92938B5A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4950,7 +5028,7 @@
         <xdr:cNvPr id="36" name="그림 35" descr="컨베이어란?/컨베이어의 종류 및 특징/벨트,스크류,공기,롤러,버킷 컨베이어">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF099A1F-7ECE-4E9D-BB4D-A67D855DC200}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF099A1F-7ECE-4E9D-BB4D-A67D855DC200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5011,7 +5089,7 @@
         <xdr:cNvPr id="37" name="그림 36" descr="Sports Equipment Storage | Greene Manufacturing, Inc.">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{984777AE-E1B8-4782-95BA-CB152F63052C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{984777AE-E1B8-4782-95BA-CB152F63052C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5072,7 +5150,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24806555-C9B9-495D-8EF7-221B96B771A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24806555-C9B9-495D-8EF7-221B96B771A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5116,7 +5194,7 @@
         <xdr:cNvPr id="19" name="그림 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC6E5CD8-4780-453B-995D-E26BC67BACA6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC6E5CD8-4780-453B-995D-E26BC67BACA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5160,7 +5238,7 @@
         <xdr:cNvPr id="40" name="그림 39" descr="Single Door Push Button “Plain” (2430) ”Doors Open” (2431) | BMAC">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B1867DA8-BD5B-4E64-BDE5-C6D2C9BB9FE2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1867DA8-BD5B-4E64-BDE5-C6D2C9BB9FE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5221,7 +5299,7 @@
         <xdr:cNvPr id="41" name="그림 40" descr="Portal floor button free VR / AR / low-poly 3D model | CGTrader">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45A47007-B312-4B17-8DAB-AB1F667751E5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A47007-B312-4B17-8DAB-AB1F667751E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5282,7 +5360,7 @@
         <xdr:cNvPr id="43" name="그림 42" descr="Eye Switch - Zelda Dungeon Wiki">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACE225E6-1B49-4A21-B81C-C75E5213BC45}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE225E6-1B49-4A21-B81C-C75E5213BC45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5343,7 +5421,7 @@
         <xdr:cNvPr id="46" name="그림 45" descr="Floor Switch - Zelda Wiki">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1CBFE341-82EF-4C8D-9CFB-D9A75CC89B33}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CBFE341-82EF-4C8D-9CFB-D9A75CC89B33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5404,7 +5482,7 @@
         <xdr:cNvPr id="47" name="그림 46" descr="Floor Switch - Zelda Wiki">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69AC94F3-AE08-4CF4-B084-C09889CDA640}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69AC94F3-AE08-4CF4-B084-C09889CDA640}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5465,7 +5543,7 @@
         <xdr:cNvPr id="51" name="그림 50" descr="Sci-Fi Box - 3D Model by VinZ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01E67164-F4E1-41B9-9272-DCEC5ED83CB5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01E67164-F4E1-41B9-9272-DCEC5ED83CB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5524,7 +5602,7 @@
         <xdr:cNvPr id="38" name="그림 37" descr="Scifi 화면 초현대적에 대한 스톡 벡터 아트 및 기타 이미지 - iStock">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9EB5214-2249-4F69-A6E2-EF4090937FF3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9EB5214-2249-4F69-A6E2-EF4090937FF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5585,7 +5663,7 @@
         <xdr:cNvPr id="39" name="그림 38" descr="공상 과학 터미널 3D 모델 - TurboSquid 1436409">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E00CB463-3719-469A-BAB7-4246A9E78336}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E00CB463-3719-469A-BAB7-4246A9E78336}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5646,7 +5724,7 @@
         <xdr:cNvPr id="42" name="그림 41" descr="공상 과학 소설 모니터 02 3D 모델 - TurboSquid 1319320">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41CE3BC0-57E2-40A6-A368-27C1ED17D6B1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41CE3BC0-57E2-40A6-A368-27C1ED17D6B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5707,7 +5785,7 @@
         <xdr:cNvPr id="44" name="그림 43" descr="24 Sci Fi Computer Screens ideas | user interface design, interface design,  game interface">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94E5FA1A-DFE6-4F38-B9A8-F577F3052C4D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E5FA1A-DFE6-4F38-B9A8-F577F3052C4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5768,7 +5846,7 @@
         <xdr:cNvPr id="45" name="그림 44" descr="Sci-Fi Display Panel - 3D Model by SimonTGriffiths">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{119559CA-C569-4C74-93EE-878DFA2319BF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{119559CA-C569-4C74-93EE-878DFA2319BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5827,7 +5905,7 @@
         <xdr:cNvPr id="48" name="그림 47" descr="Sci-fi Monitor 3D Model $29 - .unknown .max .fbx .obj .dae .3ds - Free3D">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0B11230-3DF2-4268-9671-16C0F1C7D633}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0B11230-3DF2-4268-9671-16C0F1C7D633}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5886,7 +5964,7 @@
         <xdr:cNvPr id="49" name="그림 48" descr="Door lock biometric 3D model - TurboSquid 1339887">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DE57CE37-4E1E-46C6-87BC-E2E275E8E173}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE57CE37-4E1E-46C6-87BC-E2E275E8E173}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5947,7 +6025,7 @@
         <xdr:cNvPr id="50" name="그림 49" descr="3D model Sci-Fi Door electric lock keypad or Card reader VR / AR / low-poly  | CGTrader">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26DEA23C-F4DF-4F6A-B298-48E6AD8ED3FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26DEA23C-F4DF-4F6A-B298-48E6AD8ED3FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6008,7 +6086,7 @@
         <xdr:cNvPr id="52" name="그림 51" descr="mw_Vault Door (Texture)">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8CB07BD-4EFB-4B6A-A5FA-924B5C6755F4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8CB07BD-4EFB-4B6A-A5FA-924B5C6755F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6069,7 +6147,7 @@
         <xdr:cNvPr id="53" name="그림 52" descr="Steam의 GameGuru - Sci-Fi Mission to Mars Pack">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60D9D5A0-D469-40A8-AA90-14BC2246FB6F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D9D5A0-D469-40A8-AA90-14BC2246FB6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6130,7 +6208,7 @@
         <xdr:cNvPr id="54" name="그림 53" descr="Oldschool Hand Scanner, Błażej Kaczmarek | Futuristic technology, Sci fi  concept art, Sci fi props">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09F6445B-05E9-4D3D-B661-CB3EA077B0BA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F6445B-05E9-4D3D-B661-CB3EA077B0BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6191,7 +6269,7 @@
         <xdr:cNvPr id="55" name="그림 54" descr="110 Sci Fi Inspiration ideas | concept ships, spaceship concept, sci fi  concept art">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D60D3B4-78E0-45FC-940F-FEB2D561B288}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D60D3B4-78E0-45FC-940F-FEB2D561B288}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6252,7 +6330,7 @@
         <xdr:cNvPr id="56" name="그림 55" descr="ArtStation - Sci-Fi Hand Scanner">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1854600-BB75-4AF7-A035-6A7C4B133606}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1854600-BB75-4AF7-A035-6A7C4B133606}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6298,22 +6376,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>5295900</xdr:colOff>
+      <xdr:colOff>5314950</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>236049</xdr:rowOff>
+      <xdr:rowOff>7449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9067800</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>9086850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>5063490</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="57" name="그림 56" descr="Making of sci fi gadget 3ds max- Substance painter tutorial final part -  YouTube">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81EBF6B5-2210-40CD-A42D-1B7B6D75BB7A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81EBF6B5-2210-40CD-A42D-1B7B6D75BB7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6334,8 +6412,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="21145500" y="90113949"/>
-          <a:ext cx="3771900" cy="5075091"/>
+          <a:off x="21126450" y="93028599"/>
+          <a:ext cx="3771900" cy="5056041"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6447,6 +6525,257 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4845736</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>3600450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16040100" y="98450399"/>
+          <a:ext cx="4617136" cy="3371851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4991100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9170294</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>3600450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="그림 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20802600" y="98450400"/>
+          <a:ext cx="4179194" cy="3371850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1035" name="AutoShape 11" descr="의자, 겹쳐 쌓이는. 겹쳐 쌓이는, render, 10, 의자, 디지털, 빨강. | CanStock"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15781020" y="103197660"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1037" name="AutoShape 13" descr="의자, 겹쳐 쌓이는. 겹쳐 쌓이는, render, 10, 의자, 디지털, 빨강. | CanStock"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15781020" y="103197660"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3752850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6496050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>4827104</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="그림 60" descr="의자, 겹쳐 쌓이는. 겹쳐 쌓이는, render, 10, 의자, 디지털, 빨강. | CanStock"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="17591" t="1538" r="8849" b="6539"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19564350" y="103327200"/>
+          <a:ext cx="2743200" cy="4750904"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3515366</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>3752850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="그림 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16078199" y="103593900"/>
+          <a:ext cx="3248667" cy="3409950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6470,7 +6799,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D271D1BA-7C8B-4902-B269-93430C9927FD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D271D1BA-7C8B-4902-B269-93430C9927FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6806,7 +7135,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6826,58 +7155,58 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6907,11 +7236,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
@@ -6937,13 +7266,13 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C4" s="3">
         <v>44630</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -6961,8 +7290,8 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.4"/>
@@ -6972,488 +7301,522 @@
     <col min="3" max="3" width="18.3984375" style="4" customWidth="1"/>
     <col min="4" max="4" width="61.19921875" style="5" customWidth="1"/>
     <col min="5" max="5" width="45.3984375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="75.09765625" style="7" customWidth="1"/>
     <col min="7" max="7" width="128.3984375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="99" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="76" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="189" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="15">
+      <c r="A2" s="77">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="19"/>
-      <c r="M2" s="10" t="s">
-        <v>112</v>
+      <c r="D2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="78"/>
+      <c r="M2" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="N2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="408.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="20">
+      <c r="A3" s="79">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="80"/>
+      <c r="N3" t="s">
         <v>111</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="24"/>
-      <c r="N3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="408.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="20">
+      <c r="A4" s="79">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="24"/>
+      <c r="D4" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="80"/>
       <c r="N4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="20">
+      <c r="A5" s="79">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" s="24"/>
+      <c r="D5" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="20">
+      <c r="A6" s="79">
         <v>5</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="G6" s="24"/>
+      <c r="D6" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="80"/>
     </row>
     <row r="7" spans="1:14" ht="380.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="20">
+      <c r="A7" s="79">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" s="24"/>
+      <c r="D7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="80"/>
     </row>
     <row r="8" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="20">
+      <c r="A8" s="79">
         <v>7</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="24"/>
+      <c r="D8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="80"/>
     </row>
     <row r="9" spans="1:14" ht="304.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="20">
+      <c r="A9" s="79">
         <v>8</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="G9" s="24"/>
+      <c r="D9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="80"/>
     </row>
     <row r="10" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="20">
+      <c r="A10" s="79">
         <v>9</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="24" t="s">
-        <v>119</v>
+      <c r="D10" s="12"/>
+      <c r="E10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="80" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="20">
+      <c r="A11" s="79">
         <v>10</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="24" t="s">
-        <v>119</v>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="80" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="20">
+      <c r="A12" s="79">
         <v>11</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="24"/>
+      <c r="D12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" s="80"/>
     </row>
     <row r="13" spans="1:14" ht="384.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="20">
+      <c r="A13" s="79">
         <v>12</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="G13" s="24"/>
+      <c r="D13" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="80"/>
     </row>
     <row r="14" spans="1:14" ht="186" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="20">
+      <c r="A14" s="79">
         <v>13</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="24" t="s">
-        <v>119</v>
+      <c r="D14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="80" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="20">
+      <c r="A15" s="79">
         <v>14</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="24"/>
+      <c r="D15" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="80"/>
     </row>
     <row r="16" spans="1:14" ht="293.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="20">
+      <c r="A16" s="79">
         <v>15</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="22" t="s">
+      <c r="B16" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="24"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="80"/>
     </row>
     <row r="17" spans="1:7" ht="320.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="20">
+      <c r="A17" s="79">
         <v>16</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="21" t="s">
+      <c r="D17" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="G17" s="24"/>
+      <c r="F17" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="80"/>
     </row>
     <row r="18" spans="1:7" ht="265.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="20">
+      <c r="A18" s="79">
         <v>17</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="21" t="s">
+      <c r="D18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="24"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="80"/>
     </row>
     <row r="19" spans="1:7" ht="265.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="33">
+      <c r="A19" s="81">
         <v>18</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="34" t="s">
+      <c r="D19" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38" t="s">
+      <c r="F19" s="23"/>
+      <c r="G19" s="82" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="265.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="73">
+      <c r="A20" s="83">
         <v>19</v>
       </c>
-      <c r="B20" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="70" t="s">
+      <c r="B20" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="79" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" s="76"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="96" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" s="84"/>
     </row>
     <row r="21" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="75"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="78"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="86"/>
     </row>
     <row r="22" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="73">
+      <c r="A22" s="83">
         <v>20</v>
       </c>
-      <c r="B22" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="70" t="s">
+      <c r="B22" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="85" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="82" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="79" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" s="76"/>
+      <c r="D22" s="103" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="100" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="96" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" s="84"/>
     </row>
     <row r="23" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="74"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="77"/>
+      <c r="A23" s="87"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="88"/>
     </row>
     <row r="24" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="75"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="78"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="86"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32"/>
+    <row r="25" spans="1:7" ht="396" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="89">
+        <v>21</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="90"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="396" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="91">
+        <v>22</v>
+      </c>
+      <c r="B26" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="93" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="94" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" s="95"/>
+    </row>
+    <row r="27" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F27"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="C22:C24"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="A20:A21"/>
@@ -7461,13 +7824,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="C22:C24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7500,564 +7856,591 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="88" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="M1" s="89" t="s">
-        <v>85</v>
-      </c>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q1" s="64" t="s">
-        <v>108</v>
+      <c r="A1" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="94" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="65" t="s">
-        <v>110</v>
+      <c r="A2" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="50" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="95"/>
-      <c r="B3" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="65" t="s">
-        <v>110</v>
+      <c r="A3" s="65"/>
+      <c r="B3" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="50" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="53" t="s">
+      <c r="A4" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="50" t="s">
         <v>107</v>
-      </c>
-      <c r="E4" s="92" t="s">
-        <v>168</v>
-      </c>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="92" t="s">
-        <v>92</v>
-      </c>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="65" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="96"/>
-      <c r="B5" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="92" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="65" t="s">
-        <v>110</v>
+      <c r="A5" s="66"/>
+      <c r="B5" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="50" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="96"/>
-      <c r="B6" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="99" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="65" t="s">
-        <v>110</v>
+      <c r="A6" s="66"/>
+      <c r="B6" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="50" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="48.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="97" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="99" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="65" t="s">
-        <v>109</v>
+      <c r="A7" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="50" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="97"/>
-      <c r="B8" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="92" t="s">
-        <v>145</v>
-      </c>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="65" t="s">
-        <v>109</v>
+      <c r="A8" s="61"/>
+      <c r="B8" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="50" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="97"/>
-      <c r="B9" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="65" t="s">
-        <v>110</v>
+      <c r="A9" s="61"/>
+      <c r="B9" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="50" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="53.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="98" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="99" t="s">
-        <v>159</v>
-      </c>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="65" t="s">
-        <v>110</v>
+      <c r="A10" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="50" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="98"/>
-      <c r="B11" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="99" t="s">
-        <v>162</v>
-      </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="65" t="s">
-        <v>109</v>
+      <c r="A11" s="62"/>
+      <c r="B11" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="50" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="98"/>
-      <c r="B12" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="65" t="s">
-        <v>109</v>
+      <c r="A12" s="62"/>
+      <c r="B12" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="50" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="92" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="65" t="s">
-        <v>109</v>
+      <c r="A13" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="50" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="92" t="s">
-        <v>164</v>
-      </c>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="65" t="s">
-        <v>109</v>
+      <c r="A14" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="50" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="92" t="s">
-        <v>165</v>
-      </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="65" t="s">
-        <v>110</v>
+      <c r="A15" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="50" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="92" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="65" t="s">
-        <v>110</v>
+      <c r="A16" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="50" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="65" t="s">
-        <v>109</v>
+      <c r="A17" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="50" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="102" t="s">
-        <v>166</v>
-      </c>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="66" t="s">
-        <v>110</v>
+      <c r="A18" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="51" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
     <mergeCell ref="E16:K16"/>
     <mergeCell ref="E17:K17"/>
     <mergeCell ref="E18:K18"/>
@@ -8072,33 +8455,6 @@
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="E7:K7"/>
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="E11:K11"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="M3:O3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
